--- a/Hardware/SERV.xlsx
+++ b/Hardware/SERV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2B7738-F3E9-244C-B5D8-644D9EFD3F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F41496-E9BE-534F-8AD6-E67C33B63C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1906,10 +1906,10 @@
     <v>37</v>
     <v>1.77</v>
     <v>0.58599999999999997</v>
-    <v>0.28000000000000003</v>
-    <v>2.8542000000000001E-2</v>
-    <v>0.11</v>
-    <v>1.0902E-2</v>
+    <v>0.74</v>
+    <v>7.3340000000000002E-2</v>
+    <v>-0.84</v>
+    <v>-7.7561999999999992E-2</v>
     <v>USD</v>
     <v>Serve Robotics, Inc. is engaged in developing next generation robots for last-mile delivery services. The Company offers an autonomous all-electric robot that makes delivery sustainable and economical. The Company’s fleet consists of over 100 robots. Its autonomous all-electric robot can provide real-time presence and status updates on those platforms and receive requests to perform deliveries with respect to customer orders placed on those platforms as needed. It uses artificial intelligence methodologies to design, train and deploy a host of models on robots to perform a variety of tasks, including identification of sidewalk surfaces, intersections, traffic signals, obstacles, pedestrians, and vehicles, and projecting the trajectory of other dynamic agents. Its capabilities include automatic emergency braking, vehicle collision avoidance, and fail-safe mechanical braking. The robots consist of a number of key systems, such as drivetrain, power system, and connectivity.</v>
     <v>57</v>
@@ -1917,24 +1917,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>730 Broadway, REDWOOD CITY, CA, 94063 US</v>
-    <v>10.45</v>
+    <v>11.03</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45602.875006110939</v>
-    <v>9.7100000000000009</v>
-    <v>427209389</v>
+    <v>45604.041641180469</v>
+    <v>9.81</v>
+    <v>458540900</v>
     <v>SERVE ROBOTICS INC.</v>
     <v>SERVE ROBOTICS INC.</v>
-    <v>10.15</v>
+    <v>10.36</v>
     <v>0</v>
-    <v>9.81</v>
     <v>10.09</v>
-    <v>10.199999999999999</v>
+    <v>10.83</v>
+    <v>9.99</v>
     <v>42339880</v>
     <v>SERV</v>
     <v>SERVE ROBOTICS INC. (XNAS:SERV)</v>
-    <v>4200951</v>
-    <v>5970549</v>
+    <v>10074227</v>
+    <v>6057127</v>
     <v>2020</v>
   </rv>
   <rv s="1">
@@ -2851,14 +2851,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>10.09</v>
+        <v>10.83</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>189.87083955555556</v>
+        <v>203.79595555555557</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2898,14 +2898,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.8542000000000001E-2</v>
+        <v>7.3340000000000002E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>-8.2155651730769232</v>
+        <v>-8.8180942307692316</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2946,14 +2946,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>427209389</v>
+        <v>458540900</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>-5.1496995540048864E-2</v>
+        <v>-4.7978271949132567E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.23204680808241296</v>
+        <v>0.14786263098352226</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/SERV.xlsx
+++ b/Hardware/SERV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F41496-E9BE-534F-8AD6-E67C33B63C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B25FCD-6463-5A4F-8448-DD7FDDF3019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1905,11 +1905,11 @@
     <v>Powered by Refinitiv</v>
     <v>37</v>
     <v>1.77</v>
-    <v>0.58599999999999997</v>
-    <v>0.74</v>
-    <v>7.3340000000000002E-2</v>
-    <v>-0.84</v>
-    <v>-7.7561999999999992E-2</v>
+    <v>-0.114</v>
+    <v>0.57999999999999996</v>
+    <v>7.2229000000000002E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Serve Robotics, Inc. is engaged in developing next generation robots for last-mile delivery services. The Company offers an autonomous all-electric robot that makes delivery sustainable and economical. The Company’s fleet consists of over 100 robots. Its autonomous all-electric robot can provide real-time presence and status updates on those platforms and receive requests to perform deliveries with respect to customer orders placed on those platforms as needed. It uses artificial intelligence methodologies to design, train and deploy a host of models on robots to perform a variety of tasks, including identification of sidewalk surfaces, intersections, traffic signals, obstacles, pedestrians, and vehicles, and projecting the trajectory of other dynamic agents. Its capabilities include automatic emergency braking, vehicle collision avoidance, and fail-safe mechanical braking. The robots consist of a number of key systems, such as drivetrain, power system, and connectivity.</v>
     <v>57</v>
@@ -1917,24 +1917,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>730 Broadway, REDWOOD CITY, CA, 94063 US</v>
-    <v>11.03</v>
+    <v>8.6999999999999993</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45604.041641180469</v>
-    <v>9.81</v>
-    <v>458540900</v>
+    <v>45616.041504039065</v>
+    <v>8.0299999999999994</v>
+    <v>381407502</v>
     <v>SERVE ROBOTICS INC.</v>
     <v>SERVE ROBOTICS INC.</v>
-    <v>10.36</v>
+    <v>8.07</v>
     <v>0</v>
-    <v>10.09</v>
-    <v>10.83</v>
-    <v>9.99</v>
-    <v>42339880</v>
+    <v>8.0299999999999994</v>
+    <v>8.61</v>
+    <v>8.61</v>
+    <v>44298200</v>
     <v>SERV</v>
     <v>SERVE ROBOTICS INC. (XNAS:SERV)</v>
-    <v>10074227</v>
-    <v>6057127</v>
+    <v>3362013</v>
+    <v>6090232</v>
     <v>2020</v>
   </rv>
   <rv s="1">
@@ -2818,7 +2818,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2851,14 +2851,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>10.83</v>
+        <v>8.61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>203.79595555555557</v>
+        <v>169.51444533333333</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>42339880</v>
+        <v>44298200</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2898,14 +2898,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.3340000000000002E-2</v>
+        <v>7.2229000000000002E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>-8.8180942307692316</v>
+        <v>-7.3347596538461541</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2918,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="54">
-        <v>29000000</v>
+        <v>51000000</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>28</v>
@@ -2946,14 +2946,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>458540900</v>
+        <v>381407502</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>-4.7978271949132567E-2</v>
+        <v>-5.7681088821373003E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -2973,14 +2973,14 @@
       </c>
       <c r="I5" s="45">
         <f>I4+G4-G5</f>
-        <v>526341964.34669721</v>
+        <v>548341964.34669721</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>12.431352293551546</v>
+        <v>12.378425406601108</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -2995,7 +2995,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.58599999999999997</v>
+        <v>-0.114</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G6" s="46">
         <f>G4-G5</f>
-        <v>24700000</v>
+        <v>46700000</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>3</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.14786263098352226</v>
+        <v>0.43768007045309054</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3532,10 +3532,10 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23">
-        <v>42588000</v>
+        <v>39600000</v>
       </c>
       <c r="E21" s="24">
-        <v>42588000</v>
+        <v>39600000</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
